--- a/biology/Médecine/Kubra_Faradjeva/Kubra_Faradjeva.xlsx
+++ b/biology/Médecine/Kubra_Faradjeva/Kubra_Faradjeva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kubra Faradjeva (en azéri : Kübra Yəhya qızı Fərəcova, née le 16 mai 1907 à Quba et morte en 1988 à Bakou, est une éminente pédiatre et organisatrice de la santé azerbaïdjanaise, docteur en sciences médicales (1970) et professeur (1971). Docteur honoré de la RSS d'Azerbaïdjan[1] (1960).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kubra Faradjeva (en azéri : Kübra Yəhya qızı Fərəcova, née le 16 mai 1907 à Quba et morte en 1988 à Bakou, est une éminente pédiatre et organisatrice de la santé azerbaïdjanaise, docteur en sciences médicales (1970) et professeur (1971). Docteur honoré de la RSS d'Azerbaïdjan (1960).
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1931 à 1979, Kubra Faradjeva est organisatrice et enseignante de l'école de filles de Kurdamir, sous-commissaire à la santé publique de la RSS d'Azerbaïdjan, instructrice au Comité central de l'AKP, secrétaire du Présidium du Soviet suprême de la RSS d'Azerbaïdjan, ministre de la Santé de la RSS d'Azerbaïdjan, directrice de l'Institut Kroupskaïa pour la santé maternelle et infantile.
 Ses recherches sont principalement consacrées au développement physique des enfants, à la protection des mères et des enfants.
-Elle est député du Soviet suprême de l'URSS (2e convocation), du Soviet suprême de la RSS d'Azerbaïdjan (2-3e convocation). Son rôle est important dans la formation du personnel scientifique[2].
+Elle est député du Soviet suprême de l'URSS (2e convocation), du Soviet suprême de la RSS d'Azerbaïdjan (2-3e convocation). Son rôle est important dans la formation du personnel scientifique.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Mémoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En septembre 1992, par ordre du ministre de la Santé de la République d'Azerbaïdjan, l'Institut de recherche scientifique pédiatrique est nommé d'après Kubra Farajova.
 </t>
@@ -575,9 +591,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kubra Faradjeva reçoit deux ordres de la bannière rouge du travail, deux ordres de l'insigne d'honneur et des médailles[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kubra Faradjeva reçoit deux ordres de la bannière rouge du travail, deux ordres de l'insigne d'honneur et des médailles.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Protection des mères et des enfants en Azerbaïdjan. Bakou : 1968
 Recommandations méthodiques sur l'organisation, le contrôle et l'évaluation du développement physique des enfants d'âge préscolaire dans les zones rurales de la RSS d'Azerbaïdjan (co. Avec MN Bakhshiev). Bakou : 1977.</t>
